--- a/biology/Botanique/Poire_d'Abbeville/Poire_d'Abbeville.xlsx
+++ b/biology/Botanique/Poire_d'Abbeville/Poire_d'Abbeville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Poire_d%27Abbeville</t>
+          <t>Poire_d'Abbeville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La poire d'Abbeville est une spécialité ancienne picarde, une curiosité de l'Abbevillois, retrouvée de justesse. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Poire_d%27Abbeville</t>
+          <t>Poire_d'Abbeville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour les spécialistes en pomologie, la Poire d'Abbeville serait une variété ancienne, originaire d'Abbeville ou de Boulogne-sur-Mer, on ne sait plus très bien[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour les spécialistes en pomologie, la Poire d'Abbeville serait une variété ancienne, originaire d'Abbeville ou de Boulogne-sur-Mer, on ne sait plus très bien.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Poire_d%27Abbeville</t>
+          <t>Poire_d'Abbeville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fruit
-Le pédoncule est léger au départ "et gros à l'attache[Note 1]". L'œil est presque "au ras de l'assiette" et il est "bien fermé". Il comporte des bosses bien caractéristiques et "des côtes". La couleur correspond exactement à la description d'Alphonse Mas. Des parties liégeuses se trouvent aussi sur le fruit[1].
-Tous les détails figurent dans «  le traité de pomologie d’Alphonse Mas  », éminent botaniste du XIXe siècle, qui décrit son aspect, sa texture, son goût[2].
+          <t>Fruit</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le pédoncule est léger au départ "et gros à l'attache[Note 1]". L'œil est presque "au ras de l'assiette" et il est "bien fermé". Il comporte des bosses bien caractéristiques et "des côtes". La couleur correspond exactement à la description d'Alphonse Mas. Des parties liégeuses se trouvent aussi sur le fruit.
+Tous les détails figurent dans «  le traité de pomologie d’Alphonse Mas  », éminent botaniste du XIXe siècle, qui décrit son aspect, sa texture, son goût.
 </t>
         </is>
       </c>
@@ -557,7 +576,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Poire_d%27Abbeville</t>
+          <t>Poire_d'Abbeville</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +594,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une poire destinée à la cuisson.[réf. souhaitée]
 </t>
